--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Maciek\Uczelnia\praca\przedmioty\Integrated Energy Resource Planning\2025_2026\winter\ELAND_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GalaLorenzo/Documents/INNOENERGY/AGH/VEDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D1B0D5-4329-446D-B495-DE0BE30CF656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D4CCF2-9ECF-DA4F-9FF0-F5291E6B635E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="176">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1033,6 +1033,24 @@
   </si>
   <si>
     <t>Set</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>BIOM</t>
+  </si>
+  <si>
+    <t>EX_PP_BIOM</t>
+  </si>
+  <si>
+    <t>Power Plant - Biomass</t>
+  </si>
+  <si>
+    <t>IMP_BIOM</t>
+  </si>
+  <si>
+    <t>Import of Biomass</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1742,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1828,10 +1846,6 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1913,6 +1927,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1922,15 +1945,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1949,12 +1963,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
     <cellStyle name="Normal 39 2 2" xfId="3" xr:uid="{3239FB62-2CA0-4815-BEFB-A7203B672581}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{137A5599-82BA-4049-805F-5468140AB07A}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2068,7 +2084,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2279,7 +2295,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -3073,39 +3089,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -3113,7 +3129,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -3148,7 +3164,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F6">
         <v>1</v>
       </c>
@@ -3174,7 +3190,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -3182,7 +3198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>86</v>
       </c>
@@ -3214,7 +3230,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -3222,7 +3238,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>89</v>
       </c>
@@ -3254,7 +3270,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>95</v>
       </c>
@@ -3277,7 +3293,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>98</v>
       </c>
@@ -3309,7 +3325,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>102</v>
       </c>
@@ -3330,9 +3346,9 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
@@ -3351,7 +3367,7 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3360,29 +3376,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L20"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3395,8 +3411,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3409,7 +3425,7 @@
       <c r="K4" s="36"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
       <c r="C5" s="54" t="s">
         <v>1</v>
@@ -3424,7 +3440,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="29"/>
       <c r="C6" s="57" t="s">
         <v>137</v>
@@ -3455,7 +3471,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="59" t="s">
         <v>9</v>
@@ -3486,7 +3502,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="29"/>
       <c r="C8" s="47" t="s">
         <v>15</v>
@@ -3509,7 +3525,7 @@
       <c r="K8" s="48"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="29"/>
       <c r="C9" s="49" t="s">
         <v>15</v>
@@ -3532,114 +3548,137 @@
       <c r="K9" s="50"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="29"/>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="48" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="109" t="s">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="114"/>
+      <c r="E11" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="15" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="103" t="s">
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D16" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="111"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="100" t="s">
+      <c r="E16" s="104"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D17" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="108"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="101" t="s">
+      <c r="E17" s="107"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D18" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="107"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="100" t="s">
+      <c r="E18" s="106"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D19" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="108"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="101" t="s">
+      <c r="E19" s="107"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D20" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="107"/>
-    </row>
-    <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="102" t="s">
+      <c r="E20" s="106"/>
+    </row>
+    <row r="21" spans="3:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D21" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="106"/>
+      <c r="E21" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3648,32 +3687,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+    <sheetView topLeftCell="A2" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
     <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -3686,7 +3725,7 @@
       <c r="K4" s="37"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
       <c r="C5" s="38" t="s">
         <v>21</v>
@@ -3701,7 +3740,7 @@
       <c r="K5" s="40"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="29"/>
       <c r="C6" s="41" t="s">
         <v>22</v>
@@ -3732,7 +3771,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B7" s="29"/>
       <c r="C7" s="43" t="s">
         <v>31</v>
@@ -3763,7 +3802,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="29"/>
       <c r="C8" s="45" t="s">
         <v>67</v>
@@ -3778,7 +3817,7 @@
       <c r="K8" s="46"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="29"/>
       <c r="C9" s="47" t="s">
         <v>61</v>
@@ -3801,7 +3840,7 @@
       <c r="K9" s="48"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="29"/>
       <c r="C10" s="49" t="s">
         <v>40</v>
@@ -3826,194 +3865,240 @@
       <c r="K10" s="50"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="29"/>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="29"/>
+      <c r="C12" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="47" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="29"/>
+      <c r="C13" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="29"/>
-      <c r="C13" s="51" t="s">
+      <c r="J13" s="21"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F14" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G14" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H14" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I14" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="109" t="s">
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="19" spans="3:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-    </row>
-    <row r="18" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+    </row>
+    <row r="20" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D20" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="114"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="104" t="s">
+      <c r="E20" s="110"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="117" t="s">
+      <c r="D21" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="117"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="101" t="s">
+      <c r="E21" s="113"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D22" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="115"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="100" t="s">
+      <c r="E22" s="111"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D23" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="116"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="101" t="s">
+      <c r="E23" s="112"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D24" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="115"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="100" t="s">
+      <c r="E24" s="111"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D25" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="116"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="101" t="s">
+      <c r="E25" s="112"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="115" t="s">
+      <c r="D26" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="115"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="100" t="s">
+      <c r="E26" s="111"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D27" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="116"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="101" t="s">
+      <c r="E27" s="112"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D28" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="115"/>
-    </row>
-    <row r="27" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="102" t="s">
+      <c r="E28" s="111"/>
+    </row>
+    <row r="29" spans="3:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D29" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E29" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4022,55 +4107,55 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="61" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="56"/>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="62" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4082,14 +4167,14 @@
       <c r="F6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="63" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="42" x14ac:dyDescent="0.2">
       <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="64" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4101,14 +4186,14 @@
       <c r="F7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="65" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="29"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="66" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="27"/>
@@ -4116,14 +4201,14 @@
       <c r="F8" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="67" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
+      <c r="C9" s="68" t="str">
         <f>FI_Process!E9</f>
         <v>IMP_OIL</v>
       </c>
@@ -4136,39 +4221,59 @@
         <v>FUEL_OIL</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="73">
+      <c r="G9" s="69">
         <v>30</v>
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
+      <c r="C10" s="70" t="str">
         <f>FI_Process!E10</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="D10" s="71" t="str">
         <f>FI_Process!F10</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E10" s="71" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76">
+      <c r="F10" s="71"/>
+      <c r="G10" s="72">
         <v>20</v>
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="71" t="str">
+        <f>FI_Process!E11</f>
+        <v>IMP_BIOM</v>
+      </c>
+      <c r="D11" s="71" t="str">
+        <f>FI_Process!F11</f>
+        <v>Import of Biomass</v>
+      </c>
+      <c r="E11" s="71" t="str">
+        <f>FI_Comm!E11</f>
+        <v>BIOM</v>
+      </c>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71">
+        <v>25</v>
+      </c>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -4179,32 +4284,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
-  <dimension ref="B2:P22"/>
+  <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.33203125" customWidth="1"/>
     <col min="15" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>118</v>
       </c>
@@ -4212,15 +4317,15 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
@@ -4229,12 +4334,12 @@
       <c r="L4" s="37"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="61" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="55"/>
@@ -4245,9 +4350,9 @@
       <c r="L5" s="56"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="62" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4274,7 +4379,7 @@
       <c r="K6" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="63" t="s">
         <v>111</v>
       </c>
       <c r="M6" s="34"/>
@@ -4282,9 +4387,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="42" x14ac:dyDescent="0.2">
       <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="64" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4311,7 +4416,7 @@
       <c r="K7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="65" t="s">
         <v>117</v>
       </c>
       <c r="M7" s="34"/>
@@ -4322,9 +4427,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="29"/>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="76" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="15"/>
@@ -4345,25 +4450,25 @@
       <c r="K8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="77" t="s">
         <v>77</v>
       </c>
       <c r="M8" s="34"/>
-      <c r="O8" s="86" t="s">
+      <c r="O8" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="P8" s="86" t="s">
+      <c r="P8" s="82" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
-        <f>FI_Process!E12</f>
+      <c r="C9" s="68" t="str">
+        <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
       <c r="D9" s="11" t="str">
-        <f>FI_Process!F12</f>
+        <f>FI_Process!F13</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -4389,110 +4494,147 @@
       <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="69">
         <v>1</v>
       </c>
       <c r="M9" s="34"/>
-      <c r="O9" s="85">
+      <c r="O9" s="81">
         <f>G9*H9*J9</f>
         <v>100.91520000000001</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="81">
         <f>O9/I9</f>
         <v>252.28800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
-        <f>FI_Process!E13</f>
+      <c r="C10" s="70" t="str">
+        <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
-        <f>FI_Process!F13</f>
+      <c r="D10" s="71" t="str">
+        <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E10" s="71" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="75" t="str">
+      <c r="F10" s="71" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="71">
         <v>2</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="71">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="71">
         <v>0.6</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="71">
         <v>0.5</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="71">
         <v>1</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="72">
         <v>1</v>
       </c>
       <c r="M10" s="34"/>
-      <c r="O10" s="98">
+      <c r="O10" s="94">
         <f>G10*H10*J10</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P10" s="98">
+      <c r="P10" s="94">
         <f>O10/I10</f>
         <v>52.56</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="O11" s="99">
+    <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="71" t="str">
+        <f>FI_Process!E15</f>
+        <v>EX_PP_BIOM</v>
+      </c>
+      <c r="D11" s="71" t="str">
+        <f>FI_Process!F15</f>
+        <v>Power Plant - Biomass</v>
+      </c>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71" t="str">
+        <f>FI_Comm!E11</f>
+        <v>BIOM</v>
+      </c>
+      <c r="G11" s="71">
+        <v>3</v>
+      </c>
+      <c r="H11" s="71">
+        <v>33</v>
+      </c>
+      <c r="I11" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="71">
+        <v>1</v>
+      </c>
+      <c r="L11" s="71">
+        <v>1</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+    </row>
+    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="O12" s="95">
         <f>SUM(O9:O10)</f>
         <v>132.45120000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C16" s="9" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4504,97 +4646,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="86" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="55"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="84"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="87"/>
+      <c r="F5" s="80"/>
+    </row>
+    <row r="6" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="29"/>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="83">
         <v>2025</v>
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="2:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="42" x14ac:dyDescent="0.2">
       <c r="B7" s="29"/>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="90" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="29"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97" t="s">
+      <c r="D8" s="92"/>
+      <c r="E8" s="93" t="s">
         <v>132</v>
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
-      <c r="C9" s="82" t="str">
+      <c r="C9" s="78" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="79">
         <v>100</v>
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -4802,15 +4944,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -4819,6 +4952,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4841,14 +4983,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4857,4 +4991,12 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GalaLorenzo/Documents/INNOENERGY/AGH/VEDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D4CCF2-9ECF-DA4F-9FF0-F5291E6B635E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848570F9-BE5B-3641-9AE6-B70206857586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -4287,7 +4287,7 @@
   <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4563,10 +4563,12 @@
         <f>FI_Process!F15</f>
         <v>Power Plant - Biomass</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71" t="str">
+      <c r="E11" s="71" t="str">
         <f>FI_Comm!E11</f>
         <v>BIOM</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>17</v>
       </c>
       <c r="G11" s="71">
         <v>3</v>
